--- a/QPCR_Plate_Logs.xlsx
+++ b/QPCR_Plate_Logs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13120" windowHeight="13620" tabRatio="500" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="7700" yWindow="0" windowWidth="13120" windowHeight="13620" tabRatio="500" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="03-13-18-Run3" sheetId="6" r:id="rId1"/>
@@ -23,10 +23,11 @@
     <sheet name="2018-03-17-Run14" sheetId="19" r:id="rId14"/>
     <sheet name="2018-03-17-Run15" sheetId="20" r:id="rId15"/>
     <sheet name="2018-09-20-Run16" sheetId="21" r:id="rId16"/>
-    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId17"/>
+    <sheet name="2018-09-27-Run17" sheetId="22" r:id="rId17"/>
+    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'03-02-18-Run4'!$A$1:$N$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'03-13-18-Run7'!$A$1:$M$23</definedName>
   </definedNames>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="717">
   <si>
     <t>target</t>
   </si>
@@ -8255,8 +8256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8964,6 +8965,550 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="16" thickBot="1">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="15">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="55">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>

--- a/QPCR_Plate_Logs.xlsx
+++ b/QPCR_Plate_Logs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Frawgz/qPCR_Lab_Materials/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB64062-3427-D346-8D4E-870226BE92FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="0" windowWidth="13120" windowHeight="13620" tabRatio="500" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14960" windowHeight="13620" tabRatio="500" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03-13-18-Run3" sheetId="6" r:id="rId1"/>
@@ -24,14 +30,15 @@
     <sheet name="2018-03-17-Run15" sheetId="20" r:id="rId15"/>
     <sheet name="2018-09-20-Run16" sheetId="21" r:id="rId16"/>
     <sheet name="2018-09-27-Run17" sheetId="22" r:id="rId17"/>
-    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId18"/>
+    <sheet name="2018-09-27-Run18" sheetId="23" r:id="rId18"/>
+    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'03-02-18-Run4'!$A$1:$N$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'03-13-18-Run7'!$A$1:$M$23</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="801">
   <si>
     <t>target</t>
   </si>
@@ -2252,11 +2259,263 @@
   <si>
     <t>M4-16</t>
   </si>
+  <si>
+    <t>P3-12</t>
+  </si>
+  <si>
+    <t>B6-13</t>
+  </si>
+  <si>
+    <t>J2-1</t>
+  </si>
+  <si>
+    <t>O4-1</t>
+  </si>
+  <si>
+    <t>J3-10</t>
+  </si>
+  <si>
+    <t>I7-22</t>
+  </si>
+  <si>
+    <t>E6-15</t>
+  </si>
+  <si>
+    <t>F6-25</t>
+  </si>
+  <si>
+    <t>M6-12</t>
+  </si>
+  <si>
+    <t>C6-30</t>
+  </si>
+  <si>
+    <t>E7-17</t>
+  </si>
+  <si>
+    <t>O7-1</t>
+  </si>
+  <si>
+    <t>F5-6</t>
+  </si>
+  <si>
+    <t>O2-6</t>
+  </si>
+  <si>
+    <t>D5-9</t>
+  </si>
+  <si>
+    <t>J7-4</t>
+  </si>
+  <si>
+    <t>B5-6</t>
+  </si>
+  <si>
+    <t>D7-11</t>
+  </si>
+  <si>
+    <t>P5-2</t>
+  </si>
+  <si>
+    <t>I4-6</t>
+  </si>
+  <si>
+    <t>M4-15</t>
+  </si>
+  <si>
+    <t>L2-13</t>
+  </si>
+  <si>
+    <t>I3-13</t>
+  </si>
+  <si>
+    <t>I4-28</t>
+  </si>
+  <si>
+    <t>C4-21</t>
+  </si>
+  <si>
+    <t>F4-13</t>
+  </si>
+  <si>
+    <t>E2-12</t>
+  </si>
+  <si>
+    <t>C6-20</t>
+  </si>
+  <si>
+    <t>Q7-22</t>
+  </si>
+  <si>
+    <t>E6-3</t>
+  </si>
+  <si>
+    <t>A1-5</t>
+  </si>
+  <si>
+    <t>P4-12</t>
+  </si>
+  <si>
+    <t>Q3-11</t>
+  </si>
+  <si>
+    <t>R5-1</t>
+  </si>
+  <si>
+    <t>C2-19</t>
+  </si>
+  <si>
+    <t>C7-27</t>
+  </si>
+  <si>
+    <t>K7-13</t>
+  </si>
+  <si>
+    <t>Q6-18</t>
+  </si>
+  <si>
+    <t>D6-4</t>
+  </si>
+  <si>
+    <t>F7-10</t>
+  </si>
+  <si>
+    <t>M4-2</t>
+  </si>
+  <si>
+    <t>L4-1</t>
+  </si>
+  <si>
+    <t>H7-3</t>
+  </si>
+  <si>
+    <t>K6-12</t>
+  </si>
+  <si>
+    <t>Q6-6</t>
+  </si>
+  <si>
+    <t>N7-5</t>
+  </si>
+  <si>
+    <t>F7-27</t>
+  </si>
+  <si>
+    <t>I1-1</t>
+  </si>
+  <si>
+    <t>F6-8</t>
+  </si>
+  <si>
+    <t>N2-9</t>
+  </si>
+  <si>
+    <t>C2-25</t>
+  </si>
+  <si>
+    <t>E6-5</t>
+  </si>
+  <si>
+    <t>I4-18</t>
+  </si>
+  <si>
+    <t>Q5-8</t>
+  </si>
+  <si>
+    <t>Q5-14</t>
+  </si>
+  <si>
+    <t>J5-2</t>
+  </si>
+  <si>
+    <t>Q6-27</t>
+  </si>
+  <si>
+    <t>B3-11</t>
+  </si>
+  <si>
+    <t>F5-19</t>
+  </si>
+  <si>
+    <t>F7-16</t>
+  </si>
+  <si>
+    <t>C1-5</t>
+  </si>
+  <si>
+    <t>D7-7</t>
+  </si>
+  <si>
+    <t>D4-1</t>
+  </si>
+  <si>
+    <t>D3-10</t>
+  </si>
+  <si>
+    <t>I1-24</t>
+  </si>
+  <si>
+    <t>N2-18</t>
+  </si>
+  <si>
+    <t>B5-26</t>
+  </si>
+  <si>
+    <t>G1-3</t>
+  </si>
+  <si>
+    <t>O2-9</t>
+  </si>
+  <si>
+    <t>L4-2</t>
+  </si>
+  <si>
+    <t>B3-8</t>
+  </si>
+  <si>
+    <t>I5-21</t>
+  </si>
+  <si>
+    <t>C5-5</t>
+  </si>
+  <si>
+    <t>F2-10</t>
+  </si>
+  <si>
+    <t>R5-7</t>
+  </si>
+  <si>
+    <t>R6-4</t>
+  </si>
+  <si>
+    <t>N7-14</t>
+  </si>
+  <si>
+    <t>O2-4</t>
+  </si>
+  <si>
+    <t>G4-9</t>
+  </si>
+  <si>
+    <t>C1-11</t>
+  </si>
+  <si>
+    <t>K7-24</t>
+  </si>
+  <si>
+    <t>C5-28</t>
+  </si>
+  <si>
+    <t>A4-11</t>
+  </si>
+  <si>
+    <t>O2-1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2796,9 +3055,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="155">
-    <cellStyle name="20% - Accent1 2" xfId="2"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="43"/>
-    <cellStyle name="Explanatory Text 2" xfId="3"/>
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
@@ -2948,9 +3207,9 @@
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="44"/>
-    <cellStyle name="Normal 3" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Normal 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Normal 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3286,14 +3545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -3312,7 +3571,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -3363,7 +3622,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3437,7 +3696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -3489,7 +3748,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -3541,7 +3800,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -3591,7 +3850,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -3642,7 +3901,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -3693,7 +3952,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -3744,7 +4003,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -3795,7 +4054,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -3813,10 +4072,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -3837,7 +4096,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -3855,7 +4114,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -3876,7 +4135,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -3897,7 +4156,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -3918,7 +4177,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -3935,7 +4194,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -3945,43 +4204,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>76</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -3996,14 +4255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -4022,7 +4281,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -4073,7 +4332,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -4147,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -4199,7 +4458,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -4251,7 +4510,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -4301,7 +4560,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -4352,7 +4611,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -4403,7 +4662,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -4454,7 +4713,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -4505,7 +4764,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -4523,11 +4782,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -4549,7 +4808,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -4567,7 +4826,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -4588,7 +4847,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -4609,7 +4868,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -4630,7 +4889,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -4647,7 +4906,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -4657,40 +4916,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -4705,14 +4964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -4731,7 +4990,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -4782,7 +5041,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -4856,7 +5115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -4908,7 +5167,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -4960,7 +5219,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -5010,7 +5269,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -5061,7 +5320,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -5112,7 +5371,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -5163,7 +5422,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -5214,7 +5473,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -5232,11 +5491,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -5258,7 +5517,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -5276,7 +5535,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -5297,7 +5556,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -5318,7 +5577,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -5339,7 +5598,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -5356,7 +5615,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -5366,40 +5625,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -5414,14 +5673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -5440,7 +5699,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -5491,7 +5750,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -5565,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -5617,7 +5876,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -5669,7 +5928,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -5719,7 +5978,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -5770,7 +6029,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -5821,7 +6080,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -5872,7 +6131,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -5923,7 +6182,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -5941,11 +6200,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -5967,7 +6226,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -5985,7 +6244,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -6006,7 +6265,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -6027,7 +6286,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -6048,7 +6307,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -6065,7 +6324,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -6075,40 +6334,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -6123,14 +6382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -6149,7 +6408,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -6200,7 +6459,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -6274,7 +6533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -6326,7 +6585,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6378,7 +6637,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -6428,7 +6687,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -6479,7 +6738,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -6530,7 +6789,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -6581,7 +6840,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -6632,7 +6891,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -6650,11 +6909,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -6676,7 +6935,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -6694,7 +6953,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -6715,7 +6974,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -6736,7 +6995,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -6757,7 +7016,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -6774,7 +7033,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -6784,40 +7043,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -6832,14 +7091,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -6858,7 +7117,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -6909,7 +7168,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -6983,7 +7242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -7035,7 +7294,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -7087,7 +7346,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -7137,7 +7396,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -7188,7 +7447,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -7239,7 +7498,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -7290,7 +7549,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -7341,7 +7600,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -7359,11 +7618,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -7385,7 +7644,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -7403,7 +7662,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -7424,7 +7683,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -7445,7 +7704,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -7466,7 +7725,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -7483,7 +7742,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -7493,40 +7752,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -7541,14 +7800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -7567,7 +7826,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -7618,7 +7877,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -7692,7 +7951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -7744,7 +8003,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -7796,7 +8055,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -7846,7 +8105,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -7897,7 +8156,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -7948,7 +8207,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -7999,7 +8258,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -8050,7 +8309,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -8068,11 +8327,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -8094,7 +8353,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -8112,7 +8371,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -8133,7 +8392,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -8154,7 +8413,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -8175,7 +8434,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -8192,7 +8451,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -8202,43 +8461,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -8253,14 +8512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -8279,7 +8538,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -8330,7 +8589,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -8404,7 +8663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -8456,7 +8715,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -8508,7 +8767,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -8558,7 +8817,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -8609,7 +8868,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -8660,7 +8919,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -8711,7 +8970,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -8762,7 +9021,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -8780,11 +9039,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -8806,7 +9065,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -8824,7 +9083,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -8845,7 +9104,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -8866,7 +9125,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -8887,7 +9146,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -8904,7 +9163,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -8914,43 +9173,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -8965,14 +9224,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -8991,7 +9250,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -9042,7 +9301,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -9064,12 +9323,24 @@
       <c r="G2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>722</v>
+      </c>
       <c r="N2" s="11" t="s">
         <v>72</v>
       </c>
@@ -9104,7 +9375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -9126,12 +9397,24 @@
       <c r="G3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>722</v>
+      </c>
       <c r="N3" s="18"/>
       <c r="O3" s="16"/>
       <c r="P3"/>
@@ -9144,22 +9427,46 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>734</v>
+      </c>
       <c r="N4" s="18"/>
       <c r="O4" s="16"/>
       <c r="P4"/>
@@ -9172,22 +9479,46 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>734</v>
+      </c>
       <c r="N5" s="23"/>
       <c r="P5"/>
       <c r="R5" s="12"/>
@@ -9198,22 +9529,46 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>746</v>
+      </c>
       <c r="N6" s="18"/>
       <c r="O6" s="16"/>
       <c r="P6"/>
@@ -9225,22 +9580,46 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>746</v>
+      </c>
       <c r="N7" s="18"/>
       <c r="O7" s="16"/>
       <c r="P7"/>
@@ -9252,22 +9631,46 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="26"/>
+      <c r="B8" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>758</v>
+      </c>
       <c r="N8" s="23"/>
       <c r="O8" s="16"/>
       <c r="P8"/>
@@ -9279,22 +9682,46 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="26"/>
+      <c r="B9" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>758</v>
+      </c>
       <c r="N9" s="29"/>
       <c r="O9" s="16"/>
       <c r="P9"/>
@@ -9306,7 +9733,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -9324,11 +9751,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -9350,7 +9777,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -9368,7 +9795,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -9389,7 +9816,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -9410,7 +9837,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -9431,7 +9858,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -9448,7 +9875,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -9458,43 +9885,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -9509,169 +9936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DEA330-1471-E74F-B503-67A05BEACD52}">
+  <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="38"/>
-    <col min="2" max="2" width="7.83203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="38" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="38"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43">
-        <v>2.5</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45">
-        <f>E2*$G$1</f>
-        <v>252.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33">
-      <c r="A3" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43">
-        <v>5</v>
-      </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45">
-        <f t="shared" ref="G3:G5" si="0">E3*$G$1</f>
-        <v>505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45">
-        <f t="shared" si="0"/>
-        <v>25.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45">
-        <f t="shared" si="0"/>
-        <v>25.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43">
-        <v>2</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="45">
-        <f>E6</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="50"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G7"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -9690,7 +9962,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -9731,7 +10003,7 @@
       <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="5"/>
+      <c r="P1"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="6"/>
@@ -9741,7 +10013,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -9761,31 +10033,31 @@
         <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>77</v>
+        <v>759</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>78</v>
+        <v>760</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>79</v>
+        <v>761</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>80</v>
+        <v>762</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>81</v>
+        <v>763</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>82</v>
+        <v>764</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>72</v>
       </c>
       <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
+      <c r="P2"/>
       <c r="R2" s="12"/>
       <c r="S2" s="14"/>
       <c r="T2" s="12"/>
@@ -9815,7 +10087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -9835,29 +10107,29 @@
         <v>10</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>77</v>
+        <v>759</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>78</v>
+        <v>760</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>79</v>
+        <v>761</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>80</v>
+        <v>762</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>81</v>
+        <v>763</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>82</v>
+        <v>764</v>
       </c>
       <c r="N3" s="18"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="13"/>
+      <c r="P3"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="12"/>
       <c r="S3" s="14"/>
@@ -9867,49 +10139,49 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>83</v>
+        <v>765</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>84</v>
+        <v>766</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>85</v>
+        <v>767</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>86</v>
+        <v>768</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>87</v>
+        <v>769</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>88</v>
+        <v>770</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>89</v>
+        <v>771</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>90</v>
+        <v>772</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>91</v>
+        <v>773</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>92</v>
+        <v>774</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>93</v>
+        <v>775</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>94</v>
+        <v>776</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="20"/>
+      <c r="P4"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="12"/>
       <c r="S4" s="21"/>
@@ -9919,48 +10191,48 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>83</v>
+        <v>765</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>84</v>
+        <v>766</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>85</v>
+        <v>767</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>86</v>
+        <v>768</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>87</v>
+        <v>769</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>88</v>
+        <v>770</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>89</v>
+        <v>771</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>90</v>
+        <v>772</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>91</v>
+        <v>773</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>92</v>
+        <v>774</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>93</v>
+        <v>775</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>94</v>
+        <v>776</v>
       </c>
       <c r="N5" s="23"/>
-      <c r="P5" s="13"/>
+      <c r="P5"/>
       <c r="R5" s="12"/>
       <c r="S5" s="14"/>
       <c r="T5" s="12"/>
@@ -9969,49 +10241,49 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>95</v>
+        <v>777</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>96</v>
+        <v>778</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>97</v>
+        <v>779</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>98</v>
+        <v>780</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>99</v>
+        <v>781</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>100</v>
+        <v>782</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>101</v>
+        <v>783</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>102</v>
+        <v>784</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>103</v>
+        <v>785</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>104</v>
+        <v>786</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>105</v>
+        <v>787</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>106</v>
+        <v>788</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="16"/>
-      <c r="P6" s="13"/>
+      <c r="P6"/>
       <c r="R6" s="12"/>
       <c r="S6" s="14"/>
       <c r="T6" s="12"/>
@@ -10020,49 +10292,49 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>777</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>96</v>
+        <v>778</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>97</v>
+        <v>779</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>98</v>
+        <v>780</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>99</v>
+        <v>781</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>100</v>
+        <v>782</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>101</v>
+        <v>783</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>102</v>
+        <v>784</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>103</v>
+        <v>785</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>104</v>
+        <v>786</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>105</v>
+        <v>787</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>106</v>
+        <v>788</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="24"/>
+      <c r="P7"/>
       <c r="R7" s="12"/>
       <c r="S7" s="25"/>
       <c r="T7" s="12"/>
@@ -10071,49 +10343,49 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>107</v>
+        <v>789</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>108</v>
+        <v>790</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>109</v>
+        <v>791</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>110</v>
+        <v>792</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>111</v>
+        <v>793</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>112</v>
+        <v>794</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>113</v>
+        <v>795</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>114</v>
+        <v>796</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>115</v>
+        <v>797</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>116</v>
+        <v>798</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>117</v>
+        <v>799</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>118</v>
+        <v>800</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="16"/>
-      <c r="P8" s="27"/>
+      <c r="P8"/>
       <c r="R8" s="12"/>
       <c r="S8" s="28"/>
       <c r="T8" s="12"/>
@@ -10122,49 +10394,49 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>107</v>
+        <v>789</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>108</v>
+        <v>790</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>109</v>
+        <v>791</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>110</v>
+        <v>792</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>111</v>
+        <v>793</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>112</v>
+        <v>794</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>113</v>
+        <v>795</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>114</v>
+        <v>796</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>115</v>
+        <v>797</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>116</v>
+        <v>798</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>117</v>
+        <v>799</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>118</v>
+        <v>800</v>
       </c>
       <c r="N9" s="29"/>
       <c r="O9" s="16"/>
-      <c r="P9" s="30"/>
+      <c r="P9"/>
       <c r="R9" s="12"/>
       <c r="S9" s="14"/>
       <c r="T9" s="12"/>
@@ -10173,7 +10445,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -10189,12 +10461,13 @@
       <c r="M10" s="31"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1">
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -10214,8 +10487,9 @@
       </c>
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -10233,7 +10507,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -10254,7 +10528,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -10275,7 +10549,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -10296,7 +10570,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -10313,7 +10587,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -10323,49 +10597,198 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="51" t="s">
-        <v>71</v>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="4" t="s">
-        <v>119</v>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="38"/>
+    <col min="2" max="2" width="7.83203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45">
+        <f>E2*$G$1</f>
+        <v>252.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43">
+        <v>5</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45">
+        <f t="shared" ref="G3:G5" si="0">E3*$G$1</f>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45">
+        <f t="shared" si="0"/>
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45">
+        <f t="shared" si="0"/>
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43">
+        <v>2</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="45">
+        <f>E6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="50"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10374,15 +10797,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -10401,7 +10824,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -10452,7 +10875,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -10472,25 +10895,25 @@
         <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>72</v>
@@ -10526,7 +10949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -10546,25 +10969,25 @@
         <v>10</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="N3" s="18"/>
       <c r="O3" s="16"/>
@@ -10578,45 +11001,45 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="16"/>
@@ -10630,45 +11053,45 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="N5" s="23"/>
       <c r="P5" s="13"/>
@@ -10680,45 +11103,45 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="16"/>
@@ -10731,45 +11154,45 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="16"/>
@@ -10782,45 +11205,45 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>161</v>
+        <v>117</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="16"/>
@@ -10833,45 +11256,45 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>161</v>
+        <v>117</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="N9" s="29"/>
       <c r="O9" s="16"/>
@@ -10884,7 +11307,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -10902,10 +11325,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -10926,7 +11349,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -10944,7 +11367,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -10965,7 +11388,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -10986,7 +11409,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -11007,7 +11430,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -11024,7 +11447,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -11034,46 +11457,47 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -11084,15 +11508,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -11111,7 +11535,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -11162,7 +11586,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -11185,22 +11609,22 @@
         <v>120</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>72</v>
@@ -11236,7 +11660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -11259,22 +11683,22 @@
         <v>120</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="N3" s="18"/>
       <c r="O3" s="16"/>
@@ -11288,45 +11712,45 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="16"/>
@@ -11340,45 +11764,45 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="N5" s="23"/>
       <c r="P5" s="13"/>
@@ -11390,45 +11814,45 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="16"/>
@@ -11441,45 +11865,45 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="16"/>
@@ -11492,45 +11916,45 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="16"/>
@@ -11543,45 +11967,45 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="N9" s="29"/>
       <c r="O9" s="16"/>
@@ -11594,7 +12018,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -11612,10 +12036,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -11636,7 +12060,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -11654,7 +12078,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -11675,7 +12099,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -11696,7 +12120,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -11717,7 +12141,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -11734,7 +12158,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -11744,43 +12168,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>163</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -11794,15 +12218,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL29"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection sqref="A1:N9"/>
+    <sheetView topLeftCell="B1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -11821,7 +12245,717 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5" s="13"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="13"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="24"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="27"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="30"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AL29"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection sqref="A1:N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -11886,7 +13020,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" ht="31.5" customHeight="1">
+    <row r="2" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -11953,7 +13087,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" ht="31.5" customHeight="1">
+    <row r="3" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -12019,7 +13153,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" ht="31.5" customHeight="1">
+    <row r="4" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -12085,7 +13219,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" ht="31.5" customHeight="1">
+    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -12149,7 +13283,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" ht="31.5" customHeight="1">
+    <row r="6" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -12214,7 +13348,7 @@
       <c r="AK6"/>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:38" ht="31.5" customHeight="1">
+    <row r="7" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -12279,7 +13413,7 @@
       <c r="AK7"/>
       <c r="AL7"/>
     </row>
-    <row r="8" spans="1:38" ht="31.5" customHeight="1">
+    <row r="8" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -12344,7 +13478,7 @@
       <c r="AK8"/>
       <c r="AL8"/>
     </row>
-    <row r="9" spans="1:38" ht="31.5" customHeight="1">
+    <row r="9" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -12409,7 +13543,7 @@
       <c r="AK9"/>
       <c r="AL9"/>
     </row>
-    <row r="10" spans="1:38" ht="31.5" customHeight="1">
+    <row r="10" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -12449,7 +13583,7 @@
       <c r="AK10"/>
       <c r="AL10"/>
     </row>
-    <row r="11" spans="1:38" ht="16" thickBot="1">
+    <row r="11" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="AA11"/>
       <c r="AB11"/>
@@ -12464,7 +13598,7 @@
       <c r="AK11"/>
       <c r="AL11"/>
     </row>
-    <row r="12" spans="1:38" ht="15">
+    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -12497,7 +13631,7 @@
       <c r="AK12"/>
       <c r="AL12"/>
     </row>
-    <row r="13" spans="1:38" ht="15">
+    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -12527,7 +13661,7 @@
       <c r="AK13"/>
       <c r="AL13"/>
     </row>
-    <row r="14" spans="1:38" ht="55">
+    <row r="14" spans="1:38" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -12560,7 +13694,7 @@
       <c r="AK14"/>
       <c r="AL14"/>
     </row>
-    <row r="15" spans="1:38" ht="15">
+    <row r="15" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -12593,7 +13727,7 @@
       <c r="AK15"/>
       <c r="AL15"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -12614,7 +13748,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -12631,7 +13765,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -12641,49 +13775,49 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>332</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>163</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="53" t="s">
         <v>333</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="53" t="s">
         <v>334</v>
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -12699,14 +13833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
       <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -12725,7 +13859,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -12776,7 +13910,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -12850,7 +13984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -12902,7 +14036,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -12954,7 +14088,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -13004,7 +14138,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -13055,7 +14189,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -13106,7 +14240,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -13157,7 +14291,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -13208,7 +14342,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -13226,10 +14360,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -13250,7 +14384,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -13268,7 +14402,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -13289,7 +14423,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -13310,7 +14444,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -13331,7 +14465,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -13348,7 +14482,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -13358,49 +14492,49 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>332</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>163</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="53" t="s">
         <v>333</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="53" t="s">
         <v>334</v>
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -13415,14 +14549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -13441,7 +14575,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -13492,7 +14626,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -13566,7 +14700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -13618,7 +14752,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -13670,7 +14804,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -13720,7 +14854,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -13771,7 +14905,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -13822,7 +14956,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -13873,7 +15007,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -13924,7 +15058,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -13944,10 +15078,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -13968,7 +15102,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -13986,7 +15120,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -14007,7 +15141,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -14028,7 +15162,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -14049,7 +15183,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -14066,7 +15200,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -14076,49 +15210,49 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>332</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>163</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="53" t="s">
         <v>333</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="53" t="s">
         <v>334</v>
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -14133,14 +15267,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -14159,7 +15293,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -14210,7 +15344,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -14285,7 +15419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -14337,7 +15471,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -14389,7 +15523,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -14440,7 +15574,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -14492,7 +15626,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -14544,7 +15678,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -14596,7 +15730,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -14648,7 +15782,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -14667,11 +15801,11 @@
       <c r="P10" s="16"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:32" ht="15">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -14693,7 +15827,7 @@
       <c r="N12" s="35"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -14711,7 +15845,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -14732,7 +15866,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -14753,7 +15887,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -14774,7 +15908,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -14791,7 +15925,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -14801,40 +15935,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -14849,14 +15983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
@@ -14875,7 +16009,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -14926,7 +16060,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -15000,7 +16134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -15052,7 +16186,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -15104,7 +16238,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -15154,7 +16288,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -15205,7 +16339,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -15256,7 +16390,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -15307,7 +16441,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -15358,7 +16492,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -15376,11 +16510,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -15402,7 +16536,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -15420,7 +16554,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="55">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -15441,7 +16575,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -15462,7 +16596,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -15483,7 +16617,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -15500,7 +16634,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -15510,40 +16644,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>

--- a/QPCR_Plate_Logs.xlsx
+++ b/QPCR_Plate_Logs.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Frawgz/qPCR_Lab_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB64062-3427-D346-8D4E-870226BE92FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0A131E-297C-6D4E-86A2-FE822F6B6141}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14960" windowHeight="13620" tabRatio="500" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14960" windowHeight="13620" tabRatio="500" firstSheet="22" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="03-13-18-Run3" sheetId="6" r:id="rId1"/>
-    <sheet name="03-02-18-Run4" sheetId="7" r:id="rId2"/>
-    <sheet name="03-12-18-Run5" sheetId="9" r:id="rId3"/>
-    <sheet name="03-13-18-Run6" sheetId="10" r:id="rId4"/>
-    <sheet name="03-13-18-Run7" sheetId="11" r:id="rId5"/>
-    <sheet name="03-14-18-Run8" sheetId="12" r:id="rId6"/>
-    <sheet name="03-14-18-Run9" sheetId="13" r:id="rId7"/>
-    <sheet name="2018-03-14-Run1" sheetId="2" r:id="rId8"/>
-    <sheet name="2018-03-15-Run2" sheetId="14" r:id="rId9"/>
+    <sheet name="2018-03-14-Run1" sheetId="2" r:id="rId1"/>
+    <sheet name="2018-03-15-Run2" sheetId="14" r:id="rId2"/>
+    <sheet name="03-13-18-Run3" sheetId="6" r:id="rId3"/>
+    <sheet name="03-02-18-Run4" sheetId="7" r:id="rId4"/>
+    <sheet name="03-12-18-Run5" sheetId="9" r:id="rId5"/>
+    <sheet name="03-13-18-Run6" sheetId="10" r:id="rId6"/>
+    <sheet name="03-13-18-Run7" sheetId="11" r:id="rId7"/>
+    <sheet name="03-14-18-Run8" sheetId="12" r:id="rId8"/>
+    <sheet name="03-14-18-Run9" sheetId="13" r:id="rId9"/>
     <sheet name="2018-03-15-Run10" sheetId="15" r:id="rId10"/>
     <sheet name="2018-03-15-Run11" sheetId="16" r:id="rId11"/>
     <sheet name="2018-03-15-Run12" sheetId="17" r:id="rId12"/>
@@ -31,12 +31,19 @@
     <sheet name="2018-09-20-Run16" sheetId="21" r:id="rId16"/>
     <sheet name="2018-09-27-Run17" sheetId="22" r:id="rId17"/>
     <sheet name="2018-09-27-Run18" sheetId="23" r:id="rId18"/>
-    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId19"/>
+    <sheet name="2018-09-27-Run19" sheetId="24" r:id="rId19"/>
+    <sheet name="2018-09-27-Run20" sheetId="25" r:id="rId20"/>
+    <sheet name="2018-09-27-Run21" sheetId="26" r:id="rId21"/>
+    <sheet name="2018-09-27-Run22" sheetId="27" r:id="rId22"/>
+    <sheet name="2018-09-27-Run23" sheetId="28" r:id="rId23"/>
+    <sheet name="2018-09-27-Run24" sheetId="29" r:id="rId24"/>
+    <sheet name="2018-09-27-Run25" sheetId="30" r:id="rId25"/>
+    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'03-02-18-Run4'!$A$1:$N$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'03-13-18-Run7'!$A$1:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'03-02-18-Run4'!$A$1:$N$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'03-13-18-Run7'!$A$1:$M$23</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -48,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="1095">
   <si>
     <t>target</t>
   </si>
@@ -2510,6 +2517,888 @@
   </si>
   <si>
     <t>O2-1</t>
+  </si>
+  <si>
+    <t>Q3-30</t>
+  </si>
+  <si>
+    <t>F7-1</t>
+  </si>
+  <si>
+    <t>C6-5</t>
+  </si>
+  <si>
+    <t>C7-30</t>
+  </si>
+  <si>
+    <t>H5-6</t>
+  </si>
+  <si>
+    <t>A1-6</t>
+  </si>
+  <si>
+    <t>I6-19</t>
+  </si>
+  <si>
+    <t>D7-3</t>
+  </si>
+  <si>
+    <t>Q4-4</t>
+  </si>
+  <si>
+    <t>C4-23</t>
+  </si>
+  <si>
+    <t>F6-6</t>
+  </si>
+  <si>
+    <t>E1-3</t>
+  </si>
+  <si>
+    <t>K1-1</t>
+  </si>
+  <si>
+    <t>D7-4</t>
+  </si>
+  <si>
+    <t>K7-2</t>
+  </si>
+  <si>
+    <t>K7-7</t>
+  </si>
+  <si>
+    <t>I4-16</t>
+  </si>
+  <si>
+    <t>N3-7</t>
+  </si>
+  <si>
+    <t>K5-6</t>
+  </si>
+  <si>
+    <t>E6-2</t>
+  </si>
+  <si>
+    <t>L3-5</t>
+  </si>
+  <si>
+    <t>N3-11</t>
+  </si>
+  <si>
+    <t>O2-2</t>
+  </si>
+  <si>
+    <t>I3-25</t>
+  </si>
+  <si>
+    <t>C2-24</t>
+  </si>
+  <si>
+    <t>P4-13</t>
+  </si>
+  <si>
+    <t>K7-9</t>
+  </si>
+  <si>
+    <t>L3-9</t>
+  </si>
+  <si>
+    <t>G4-12</t>
+  </si>
+  <si>
+    <t>C7-16</t>
+  </si>
+  <si>
+    <t>M5-12</t>
+  </si>
+  <si>
+    <t>Q7-23</t>
+  </si>
+  <si>
+    <t>H5-1</t>
+  </si>
+  <si>
+    <t>E6-17</t>
+  </si>
+  <si>
+    <t>Q7-30</t>
+  </si>
+  <si>
+    <t>K6-10</t>
+  </si>
+  <si>
+    <t>I2-28</t>
+  </si>
+  <si>
+    <t>M5-10</t>
+  </si>
+  <si>
+    <t>M5-21</t>
+  </si>
+  <si>
+    <t>P3-1</t>
+  </si>
+  <si>
+    <t>D4-7</t>
+  </si>
+  <si>
+    <t>K1-3</t>
+  </si>
+  <si>
+    <t>I2-15</t>
+  </si>
+  <si>
+    <t>Q7-32</t>
+  </si>
+  <si>
+    <t>E2-9</t>
+  </si>
+  <si>
+    <t>E4-15</t>
+  </si>
+  <si>
+    <t>R7-10</t>
+  </si>
+  <si>
+    <t>F2-19</t>
+  </si>
+  <si>
+    <t>B5-25</t>
+  </si>
+  <si>
+    <t>F2-18</t>
+  </si>
+  <si>
+    <t>R3-2</t>
+  </si>
+  <si>
+    <t>B2-12</t>
+  </si>
+  <si>
+    <t>F3-11</t>
+  </si>
+  <si>
+    <t>J3-7</t>
+  </si>
+  <si>
+    <t>M1-3</t>
+  </si>
+  <si>
+    <t>R4-4</t>
+  </si>
+  <si>
+    <t>P6-10</t>
+  </si>
+  <si>
+    <t>B5-11</t>
+  </si>
+  <si>
+    <t>C4-14</t>
+  </si>
+  <si>
+    <t>B4-9</t>
+  </si>
+  <si>
+    <t>F5-24</t>
+  </si>
+  <si>
+    <t>I2-25</t>
+  </si>
+  <si>
+    <t>M5-15</t>
+  </si>
+  <si>
+    <t>K3-6</t>
+  </si>
+  <si>
+    <t>Q3-17</t>
+  </si>
+  <si>
+    <t>J1-4</t>
+  </si>
+  <si>
+    <t>Q7-6</t>
+  </si>
+  <si>
+    <t>J5-14</t>
+  </si>
+  <si>
+    <t>E7-7</t>
+  </si>
+  <si>
+    <t>F4-10</t>
+  </si>
+  <si>
+    <t>Q4-11</t>
+  </si>
+  <si>
+    <t>E4-10</t>
+  </si>
+  <si>
+    <t>K6-4</t>
+  </si>
+  <si>
+    <t>B7-19</t>
+  </si>
+  <si>
+    <t>I5-27</t>
+  </si>
+  <si>
+    <t>D5-1</t>
+  </si>
+  <si>
+    <t>H7-1</t>
+  </si>
+  <si>
+    <t>I6-4</t>
+  </si>
+  <si>
+    <t>I1-17</t>
+  </si>
+  <si>
+    <t>I3-12</t>
+  </si>
+  <si>
+    <t>F5-30</t>
+  </si>
+  <si>
+    <t>C7-18</t>
+  </si>
+  <si>
+    <t>C1-20</t>
+  </si>
+  <si>
+    <t>E2-20</t>
+  </si>
+  <si>
+    <t>J1-3</t>
+  </si>
+  <si>
+    <t>D5-3</t>
+  </si>
+  <si>
+    <t>D5-10</t>
+  </si>
+  <si>
+    <t>C7-19</t>
+  </si>
+  <si>
+    <t>B7-12</t>
+  </si>
+  <si>
+    <t>D3-13</t>
+  </si>
+  <si>
+    <t>K5-19</t>
+  </si>
+  <si>
+    <t>M5-8</t>
+  </si>
+  <si>
+    <t>A3-12</t>
+  </si>
+  <si>
+    <t>Q7-25</t>
+  </si>
+  <si>
+    <t>N4-16</t>
+  </si>
+  <si>
+    <t>C3-5</t>
+  </si>
+  <si>
+    <t>F6-14</t>
+  </si>
+  <si>
+    <t>B7-4</t>
+  </si>
+  <si>
+    <t>K5-2</t>
+  </si>
+  <si>
+    <t>E5-20</t>
+  </si>
+  <si>
+    <t>N7-13</t>
+  </si>
+  <si>
+    <t>R7-8</t>
+  </si>
+  <si>
+    <t>A3-14</t>
+  </si>
+  <si>
+    <t>D3-1</t>
+  </si>
+  <si>
+    <t>J5-6</t>
+  </si>
+  <si>
+    <t>N7-16</t>
+  </si>
+  <si>
+    <t>Q4-24</t>
+  </si>
+  <si>
+    <t>D7-9</t>
+  </si>
+  <si>
+    <t>K7-6</t>
+  </si>
+  <si>
+    <t>P3-9</t>
+  </si>
+  <si>
+    <t>Q6-24</t>
+  </si>
+  <si>
+    <t>F4-6</t>
+  </si>
+  <si>
+    <t>D3-5</t>
+  </si>
+  <si>
+    <t>E4-8</t>
+  </si>
+  <si>
+    <t>I6-1</t>
+  </si>
+  <si>
+    <t>R4-10</t>
+  </si>
+  <si>
+    <t>Q6-14</t>
+  </si>
+  <si>
+    <t>I2-21</t>
+  </si>
+  <si>
+    <t>A6-8</t>
+  </si>
+  <si>
+    <t>F1-4</t>
+  </si>
+  <si>
+    <t>F5-20</t>
+  </si>
+  <si>
+    <t>K4-3</t>
+  </si>
+  <si>
+    <t>G2-2</t>
+  </si>
+  <si>
+    <t>I3-28</t>
+  </si>
+  <si>
+    <t>E4-1</t>
+  </si>
+  <si>
+    <t>C5-26</t>
+  </si>
+  <si>
+    <t>B6-9</t>
+  </si>
+  <si>
+    <t>J6-4</t>
+  </si>
+  <si>
+    <t>C2-10</t>
+  </si>
+  <si>
+    <t>I1-5</t>
+  </si>
+  <si>
+    <t>F1-3</t>
+  </si>
+  <si>
+    <t>N2-26</t>
+  </si>
+  <si>
+    <t>F6-19</t>
+  </si>
+  <si>
+    <t>K6-6</t>
+  </si>
+  <si>
+    <t>B7-15</t>
+  </si>
+  <si>
+    <t>I1-25</t>
+  </si>
+  <si>
+    <t>K7-29</t>
+  </si>
+  <si>
+    <t>C3-18</t>
+  </si>
+  <si>
+    <t>Q5-19</t>
+  </si>
+  <si>
+    <t>E2-14</t>
+  </si>
+  <si>
+    <t>Q7-7</t>
+  </si>
+  <si>
+    <t>K4-13</t>
+  </si>
+  <si>
+    <t>C2-26</t>
+  </si>
+  <si>
+    <t>B3-5</t>
+  </si>
+  <si>
+    <t>C4-20</t>
+  </si>
+  <si>
+    <t>N3-1</t>
+  </si>
+  <si>
+    <t>K5-22</t>
+  </si>
+  <si>
+    <t>I2-5</t>
+  </si>
+  <si>
+    <t>N7-17</t>
+  </si>
+  <si>
+    <t>E4-17</t>
+  </si>
+  <si>
+    <t>P5-4</t>
+  </si>
+  <si>
+    <t>F2-21</t>
+  </si>
+  <si>
+    <t>B2-13</t>
+  </si>
+  <si>
+    <t>G1-2</t>
+  </si>
+  <si>
+    <t>N6-6</t>
+  </si>
+  <si>
+    <t>N2-20</t>
+  </si>
+  <si>
+    <t>F3-8</t>
+  </si>
+  <si>
+    <t>K4-7</t>
+  </si>
+  <si>
+    <t>C1-27</t>
+  </si>
+  <si>
+    <t>O6-4</t>
+  </si>
+  <si>
+    <t>K7-23</t>
+  </si>
+  <si>
+    <t>C3-13</t>
+  </si>
+  <si>
+    <t>G2-9</t>
+  </si>
+  <si>
+    <t>E5-14</t>
+  </si>
+  <si>
+    <t>K3-7</t>
+  </si>
+  <si>
+    <t>A2-13</t>
+  </si>
+  <si>
+    <t>K6-34</t>
+  </si>
+  <si>
+    <t>L6-2</t>
+  </si>
+  <si>
+    <t>Q6-1</t>
+  </si>
+  <si>
+    <t>M4-11</t>
+  </si>
+  <si>
+    <t>Q7-21</t>
+  </si>
+  <si>
+    <t>R7-5</t>
+  </si>
+  <si>
+    <t>G2-6</t>
+  </si>
+  <si>
+    <t>C5-23</t>
+  </si>
+  <si>
+    <t>E7-23</t>
+  </si>
+  <si>
+    <t>E5-1</t>
+  </si>
+  <si>
+    <t>N7-24</t>
+  </si>
+  <si>
+    <t>I5-26</t>
+  </si>
+  <si>
+    <t>C3-8</t>
+  </si>
+  <si>
+    <t>I7-1</t>
+  </si>
+  <si>
+    <t>J6-5</t>
+  </si>
+  <si>
+    <t>R5-8</t>
+  </si>
+  <si>
+    <t>P6-3</t>
+  </si>
+  <si>
+    <t>I7-2</t>
+  </si>
+  <si>
+    <t>Q4-25</t>
+  </si>
+  <si>
+    <t>H1-2</t>
+  </si>
+  <si>
+    <t>O6-6</t>
+  </si>
+  <si>
+    <t>K6-11</t>
+  </si>
+  <si>
+    <t>I7-30</t>
+  </si>
+  <si>
+    <t>C3-7</t>
+  </si>
+  <si>
+    <t>C7-17</t>
+  </si>
+  <si>
+    <t>J1-10</t>
+  </si>
+  <si>
+    <t>E5-3</t>
+  </si>
+  <si>
+    <t>A3-7</t>
+  </si>
+  <si>
+    <t>I6-22</t>
+  </si>
+  <si>
+    <t>K6-14</t>
+  </si>
+  <si>
+    <t>I6-24</t>
+  </si>
+  <si>
+    <t>I4-2</t>
+  </si>
+  <si>
+    <t>I4-8</t>
+  </si>
+  <si>
+    <t>C2-3</t>
+  </si>
+  <si>
+    <t>B5-27</t>
+  </si>
+  <si>
+    <t>I6-29</t>
+  </si>
+  <si>
+    <t>E2-13</t>
+  </si>
+  <si>
+    <t>D6-14</t>
+  </si>
+  <si>
+    <t>E7-1</t>
+  </si>
+  <si>
+    <t>C5-30</t>
+  </si>
+  <si>
+    <t>L1-9</t>
+  </si>
+  <si>
+    <t>Q7-2</t>
+  </si>
+  <si>
+    <t>M5-2</t>
+  </si>
+  <si>
+    <t>I3-7</t>
+  </si>
+  <si>
+    <t>L1-10</t>
+  </si>
+  <si>
+    <t>F6-29</t>
+  </si>
+  <si>
+    <t>A5-13</t>
+  </si>
+  <si>
+    <t>I4-23</t>
+  </si>
+  <si>
+    <t>E6-13</t>
+  </si>
+  <si>
+    <t>G6-2</t>
+  </si>
+  <si>
+    <t>A2-2</t>
+  </si>
+  <si>
+    <t>B5-24</t>
+  </si>
+  <si>
+    <t>M4-12</t>
+  </si>
+  <si>
+    <t>L2-6</t>
+  </si>
+  <si>
+    <t>Q6-28</t>
+  </si>
+  <si>
+    <t>A2-7</t>
+  </si>
+  <si>
+    <t>I2-26</t>
+  </si>
+  <si>
+    <t>C4-25</t>
+  </si>
+  <si>
+    <t>K2-1</t>
+  </si>
+  <si>
+    <t>M2-3</t>
+  </si>
+  <si>
+    <t>B6-18</t>
+  </si>
+  <si>
+    <t>A4-23</t>
+  </si>
+  <si>
+    <t>M3-4</t>
+  </si>
+  <si>
+    <t>K7-12</t>
+  </si>
+  <si>
+    <t>B2-18</t>
+  </si>
+  <si>
+    <t>N2-17</t>
+  </si>
+  <si>
+    <t>H2-10</t>
+  </si>
+  <si>
+    <t>B5-12</t>
+  </si>
+  <si>
+    <t>R7-11</t>
+  </si>
+  <si>
+    <t>E5-19</t>
+  </si>
+  <si>
+    <t>F7-9</t>
+  </si>
+  <si>
+    <t>C1-7</t>
+  </si>
+  <si>
+    <t>F2-25</t>
+  </si>
+  <si>
+    <t>D4-4</t>
+  </si>
+  <si>
+    <t>C1-2</t>
+  </si>
+  <si>
+    <t>C5-7</t>
+  </si>
+  <si>
+    <t>C7-7</t>
+  </si>
+  <si>
+    <t>R3-1</t>
+  </si>
+  <si>
+    <t>Q3-27</t>
+  </si>
+  <si>
+    <t>Q5-15</t>
+  </si>
+  <si>
+    <t>N7-22</t>
+  </si>
+  <si>
+    <t>C6-18</t>
+  </si>
+  <si>
+    <t>N3-2</t>
+  </si>
+  <si>
+    <t>C4-1</t>
+  </si>
+  <si>
+    <t>C7-2</t>
+  </si>
+  <si>
+    <t>N2-7</t>
+  </si>
+  <si>
+    <t>F7-8</t>
+  </si>
+  <si>
+    <t>C7-24</t>
+  </si>
+  <si>
+    <t>G2-7</t>
+  </si>
+  <si>
+    <t>B4-10</t>
+  </si>
+  <si>
+    <t>G6-4</t>
+  </si>
+  <si>
+    <t>P3-5</t>
+  </si>
+  <si>
+    <t>D3-14</t>
+  </si>
+  <si>
+    <t>C2-5</t>
+  </si>
+  <si>
+    <t>Q6-17</t>
+  </si>
+  <si>
+    <t>C3-11</t>
+  </si>
+  <si>
+    <t>H2-8</t>
+  </si>
+  <si>
+    <t>I5-14</t>
+  </si>
+  <si>
+    <t>Q4-27</t>
+  </si>
+  <si>
+    <t>K6-33</t>
+  </si>
+  <si>
+    <t>G5-2</t>
+  </si>
+  <si>
+    <t>C5-14</t>
+  </si>
+  <si>
+    <t>M4-1</t>
+  </si>
+  <si>
+    <t>F6-5</t>
+  </si>
+  <si>
+    <t>K7-19</t>
+  </si>
+  <si>
+    <t>J4-4</t>
+  </si>
+  <si>
+    <t>D5-5</t>
+  </si>
+  <si>
+    <t>I2-19</t>
+  </si>
+  <si>
+    <t>Q5-23</t>
+  </si>
+  <si>
+    <t>M2-1</t>
+  </si>
+  <si>
+    <t>I3-22</t>
+  </si>
+  <si>
+    <t>C1-19</t>
+  </si>
+  <si>
+    <t>Q3-21</t>
+  </si>
+  <si>
+    <t>N2-12</t>
+  </si>
+  <si>
+    <t>C2-30</t>
+  </si>
+  <si>
+    <t>E3-10</t>
+  </si>
+  <si>
+    <t>C4-11</t>
+  </si>
+  <si>
+    <t>Q7-33</t>
+  </si>
+  <si>
+    <t>A5-6</t>
+  </si>
+  <si>
+    <t>F1-5</t>
+  </si>
+  <si>
+    <t>I2-20</t>
+  </si>
+  <si>
+    <t>M5-4</t>
+  </si>
+  <si>
+    <t>A6-9</t>
+  </si>
+  <si>
+    <t>G7-6</t>
+  </si>
+  <si>
+    <t>A3-9</t>
+  </si>
+  <si>
+    <t>J3-9</t>
+  </si>
+  <si>
+    <t>F6-12</t>
+  </si>
+  <si>
+    <t>L2-1</t>
   </si>
 </sst>
 </file>
@@ -2923,7 +3812,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3052,6 +3941,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="155">
@@ -3545,11 +4437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3571,7 +4463,7 @@
     <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -3613,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="Q1"/>
       <c r="R1" s="5"/>
       <c r="S1" s="6"/>
       <c r="T1" s="5"/>
@@ -3642,31 +4534,32 @@
         <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>27</v>
+        <v>337</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>72</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="13"/>
+      <c r="Q2"/>
       <c r="R2" s="12"/>
       <c r="S2" s="14"/>
       <c r="T2" s="12"/>
@@ -3716,30 +4609,30 @@
         <v>10</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>27</v>
+        <v>337</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="N3" s="18"/>
       <c r="O3" s="16"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="19"/>
+      <c r="Q3"/>
       <c r="R3" s="12"/>
       <c r="S3" s="14"/>
       <c r="T3" s="12"/>
@@ -3753,45 +4646,45 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>344</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>39</v>
+        <v>349</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="16"/>
       <c r="P4" s="20"/>
-      <c r="Q4" s="19"/>
+      <c r="Q4"/>
       <c r="R4" s="12"/>
       <c r="S4" s="21"/>
       <c r="T4" s="12"/>
@@ -3805,43 +4698,44 @@
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>344</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>39</v>
+        <v>349</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="23"/>
+        <v>354</v>
+      </c>
+      <c r="N5" s="18"/>
       <c r="P5" s="13"/>
+      <c r="Q5"/>
       <c r="R5" s="12"/>
       <c r="S5" s="14"/>
       <c r="T5" s="12"/>
@@ -3855,44 +4749,45 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>47</v>
+        <v>357</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>48</v>
+        <v>358</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>50</v>
+        <v>360</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>51</v>
+        <v>361</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>53</v>
+        <v>363</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>54</v>
+        <v>364</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>55</v>
+        <v>365</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>56</v>
+        <v>366</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="16"/>
       <c r="P6" s="13"/>
+      <c r="Q6"/>
       <c r="R6" s="12"/>
       <c r="S6" s="14"/>
       <c r="T6" s="12"/>
@@ -3906,44 +4801,45 @@
         <v>11</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>47</v>
+        <v>357</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>48</v>
+        <v>358</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>50</v>
+        <v>360</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>51</v>
+        <v>361</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>53</v>
+        <v>363</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>54</v>
+        <v>364</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>55</v>
+        <v>365</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>56</v>
+        <v>366</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="16"/>
       <c r="P7" s="24"/>
+      <c r="Q7"/>
       <c r="R7" s="12"/>
       <c r="S7" s="25"/>
       <c r="T7" s="12"/>
@@ -3957,44 +4853,45 @@
         <v>12</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>367</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>58</v>
+        <v>368</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>59</v>
+        <v>369</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>61</v>
+        <v>371</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>63</v>
+        <v>373</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>68</v>
+        <v>375</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>65</v>
+        <v>376</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>66</v>
+        <v>377</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>67</v>
+        <v>378</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="16"/>
       <c r="P8" s="27"/>
+      <c r="Q8"/>
       <c r="R8" s="12"/>
       <c r="S8" s="28"/>
       <c r="T8" s="12"/>
@@ -4008,44 +4905,45 @@
         <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>367</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>58</v>
+        <v>368</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>59</v>
+        <v>369</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>61</v>
+        <v>371</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>63</v>
+        <v>373</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>68</v>
+        <v>375</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>65</v>
+        <v>376</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>66</v>
+        <v>377</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>67</v>
+        <v>378</v>
       </c>
       <c r="N9" s="29"/>
       <c r="O9" s="16"/>
       <c r="P9" s="30"/>
+      <c r="Q9"/>
       <c r="R9" s="12"/>
       <c r="S9" s="14"/>
       <c r="T9" s="12"/>
@@ -4071,11 +4969,13 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -4095,6 +4995,7 @@
       </c>
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
+      <c r="Q12"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
@@ -4217,9 +5118,6 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -9939,7 +10837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DEA330-1471-E74F-B503-67A05BEACD52}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -10643,6 +11541,5664 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B505969C-DBFC-9948-B6CA-E5935FF665E5}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D34591-CEC0-6B41-93F8-404D327CAF0F}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>884</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>884</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9887CE-B856-0841-BB7C-8646FC0B28EB}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>914</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>926</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>926</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6471BBD9-4FB8-6148-A924-BAE8AE3D718E}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>956</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>956</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EFB21C-D231-EF4A-A303-07D2A42C4549}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA475DC8-3F9D-844C-B974-E960E7049BB9}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87F41D-EDEB-6C4C-AC63-FC0CB442114F}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -10797,7 +17353,717 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5" s="13"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="13"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="24"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="27"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="30"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
@@ -11508,7 +18774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
@@ -12218,7 +19484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
@@ -12928,7 +20194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL29"/>
   <sheetViews>
@@ -13832,7 +21098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
@@ -14548,7 +21814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
@@ -15264,1429 +22530,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AF29"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4"/>
-    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="4"/>
-    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="4"/>
-    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="4"/>
-    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="5"/>
-      <c r="Q1"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="8"/>
-    </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-      <c r="Q2"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="13"/>
-      <c r="Z2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="14">
-        <v>213000000</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="14">
-        <v>213000</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="14">
-        <v>213</v>
-      </c>
-      <c r="AF2" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="13"/>
-      <c r="Q3"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="17"/>
-    </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="20"/>
-      <c r="Q4"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="22"/>
-    </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="N5" s="18"/>
-      <c r="P5" s="13"/>
-      <c r="Q5"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="17"/>
-    </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="13"/>
-      <c r="Q6"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="17"/>
-    </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="24"/>
-      <c r="Q7"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="22"/>
-    </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="27"/>
-      <c r="Q8"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="17"/>
-    </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="30"/>
-      <c r="Q9"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="17"/>
-    </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="35"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41">
-        <v>101</v>
-      </c>
-      <c r="L12" s="36"/>
-      <c r="N12" s="35"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B13" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43">
-        <v>2.5</v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45">
-        <f>F13*H12</f>
-        <v>252.5</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="N13" s="37"/>
-    </row>
-    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
-      <c r="B14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43">
-        <v>5</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45">
-        <f>F14*H12</f>
-        <v>505</v>
-      </c>
-      <c r="L14" s="36"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B15" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45">
-        <f>F15*H12</f>
-        <v>25.25</v>
-      </c>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B16" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45">
-        <f>F16*H12</f>
-        <v>25.25</v>
-      </c>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43">
-        <v>2</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="45">
-        <f>F17</f>
-        <v>2</v>
-      </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L29" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AF29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4"/>
-    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="4"/>
-    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="4"/>
-    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="4"/>
-    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="8"/>
-    </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="13"/>
-      <c r="Z2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="14">
-        <v>213000000</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="14">
-        <v>213000</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="14">
-        <v>213</v>
-      </c>
-      <c r="AF2" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="16"/>
-      <c r="P3"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="17"/>
-    </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="16"/>
-      <c r="P4"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="22"/>
-    </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="N5" s="23"/>
-      <c r="P5"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="17"/>
-    </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="16"/>
-      <c r="P6"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="17"/>
-    </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="16"/>
-      <c r="P7"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="22"/>
-    </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="16"/>
-      <c r="P8"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="17"/>
-    </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="16"/>
-      <c r="P9"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="17"/>
-    </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10"/>
-    </row>
-    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="35"/>
-      <c r="P11"/>
-    </row>
-    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41">
-        <v>101</v>
-      </c>
-      <c r="L12" s="36"/>
-      <c r="N12" s="35"/>
-      <c r="P12"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B13" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43">
-        <v>2.5</v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45">
-        <f>F13*H12</f>
-        <v>252.5</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="N13" s="37"/>
-    </row>
-    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
-      <c r="B14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43">
-        <v>5</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45">
-        <f>F14*H12</f>
-        <v>505</v>
-      </c>
-      <c r="L14" s="36"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B15" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45">
-        <f>F15*H12</f>
-        <v>25.25</v>
-      </c>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B16" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45">
-        <f>F16*H12</f>
-        <v>25.25</v>
-      </c>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43">
-        <v>2</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="45">
-        <f>F17</f>
-        <v>2</v>
-      </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L29" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/QPCR_Plate_Logs.xlsx
+++ b/QPCR_Plate_Logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Frawgz/qPCR_Lab_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0A131E-297C-6D4E-86A2-FE822F6B6141}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0873A5E-7E57-2B46-9381-8D54BA6FD672}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14960" windowHeight="13620" tabRatio="500" firstSheet="22" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14960" windowHeight="13620" tabRatio="500" firstSheet="23" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-03-14-Run1" sheetId="2" r:id="rId1"/>
@@ -38,10 +38,11 @@
     <sheet name="2018-09-27-Run23" sheetId="28" r:id="rId23"/>
     <sheet name="2018-09-27-Run24" sheetId="29" r:id="rId24"/>
     <sheet name="2018-09-27-Run25" sheetId="30" r:id="rId25"/>
-    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId26"/>
+    <sheet name="2018-10-18-Run1-17" sheetId="33" r:id="rId26"/>
+    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId27"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'03-02-18-Run4'!$A$1:$N$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'03-13-18-Run7'!$A$1:$M$23</definedName>
   </definedNames>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1137">
   <si>
     <t>target</t>
   </si>
@@ -157,6 +158,7 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -167,6 +169,7 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -3399,6 +3402,132 @@
   </si>
   <si>
     <t>L2-1</t>
+  </si>
+  <si>
+    <t>H2-1-12</t>
+  </si>
+  <si>
+    <t>E2-1-3</t>
+  </si>
+  <si>
+    <t>W2-1-6</t>
+  </si>
+  <si>
+    <t>X2-1-11</t>
+  </si>
+  <si>
+    <t>R2-1-2</t>
+  </si>
+  <si>
+    <t>P2-1-15</t>
+  </si>
+  <si>
+    <t>O2-1-3</t>
+  </si>
+  <si>
+    <t>Q2-1-24</t>
+  </si>
+  <si>
+    <t>E2-1-27</t>
+  </si>
+  <si>
+    <t>K2-1-4</t>
+  </si>
+  <si>
+    <t>I2-1-27</t>
+  </si>
+  <si>
+    <t>E2-1-4</t>
+  </si>
+  <si>
+    <t>J2-1-20</t>
+  </si>
+  <si>
+    <t>S2-1-27</t>
+  </si>
+  <si>
+    <t>AA2-1-1</t>
+  </si>
+  <si>
+    <t>B2-1-3</t>
+  </si>
+  <si>
+    <t>J2-1-12</t>
+  </si>
+  <si>
+    <t>X2-1-26</t>
+  </si>
+  <si>
+    <t>I2-1-1</t>
+  </si>
+  <si>
+    <t>V2-1-12</t>
+  </si>
+  <si>
+    <t>Y2-1-20</t>
+  </si>
+  <si>
+    <t>Y2-1-27</t>
+  </si>
+  <si>
+    <t>H2-1-10</t>
+  </si>
+  <si>
+    <t>BB2-1-1</t>
+  </si>
+  <si>
+    <t>E2-1-1</t>
+  </si>
+  <si>
+    <t>S2-1-28</t>
+  </si>
+  <si>
+    <t>CC2-1-15</t>
+  </si>
+  <si>
+    <t>I2-1-28</t>
+  </si>
+  <si>
+    <t>Q2-1-15</t>
+  </si>
+  <si>
+    <t>AA2-1-2</t>
+  </si>
+  <si>
+    <t>S2-1-18</t>
+  </si>
+  <si>
+    <t>H2-1-7</t>
+  </si>
+  <si>
+    <t>I2-1-4</t>
+  </si>
+  <si>
+    <t>Q2-1-20</t>
+  </si>
+  <si>
+    <t>CC2-1-14</t>
+  </si>
+  <si>
+    <t>B2-1-9</t>
+  </si>
+  <si>
+    <t>U2-1-28</t>
+  </si>
+  <si>
+    <t>U2-1-26</t>
+  </si>
+  <si>
+    <t>T2-1-4</t>
+  </si>
+  <si>
+    <t>P2-1-1</t>
+  </si>
+  <si>
+    <t>N2-1-3</t>
+  </si>
+  <si>
+    <t>V2-1-17</t>
   </si>
 </sst>
 </file>
@@ -3481,6 +3610,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3488,6 +3618,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3496,12 +3627,14 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -16495,8 +16628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87F41D-EDEB-6C4C-AC63-FC0CB442114F}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17199,6 +17332,713 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CB176C-CC02-5B47-9B7E-97CA787F3190}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>1136</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>1136</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>

--- a/QPCR_Plate_Logs.xlsx
+++ b/QPCR_Plate_Logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Frawgz/qPCR_Lab_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0873A5E-7E57-2B46-9381-8D54BA6FD672}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C74FD4-8094-144E-83F7-2FA7ECF05C20}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14960" windowHeight="13620" tabRatio="500" firstSheet="23" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14960" windowHeight="13620" tabRatio="500" firstSheet="23" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-03-14-Run1" sheetId="2" r:id="rId1"/>
@@ -39,10 +39,11 @@
     <sheet name="2018-09-27-Run24" sheetId="29" r:id="rId24"/>
     <sheet name="2018-09-27-Run25" sheetId="30" r:id="rId25"/>
     <sheet name="2018-10-18-Run1-17" sheetId="33" r:id="rId26"/>
-    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId27"/>
+    <sheet name="2018-10-18-Run2-17" sheetId="34" r:id="rId27"/>
+    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'03-02-18-Run4'!$A$1:$N$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'03-13-18-Run7'!$A$1:$M$23</definedName>
   </definedNames>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="1179">
   <si>
     <t>target</t>
   </si>
@@ -3528,6 +3529,132 @@
   </si>
   <si>
     <t>V2-1-17</t>
+  </si>
+  <si>
+    <t>T2-1-13</t>
+  </si>
+  <si>
+    <t>CC2-1-10</t>
+  </si>
+  <si>
+    <t>Y2-1-10</t>
+  </si>
+  <si>
+    <t>O2-1-4</t>
+  </si>
+  <si>
+    <t>BB2-1-16</t>
+  </si>
+  <si>
+    <t>B2-1-5</t>
+  </si>
+  <si>
+    <t>N2-1-10</t>
+  </si>
+  <si>
+    <t>X2-1-1</t>
+  </si>
+  <si>
+    <t>N2-1-25</t>
+  </si>
+  <si>
+    <t>H2-1-9</t>
+  </si>
+  <si>
+    <t>J2-1-13</t>
+  </si>
+  <si>
+    <t>I1-1-14</t>
+  </si>
+  <si>
+    <t>J2-1-8</t>
+  </si>
+  <si>
+    <t>X2-1-2</t>
+  </si>
+  <si>
+    <t>M2-1-2</t>
+  </si>
+  <si>
+    <t>S2-1-4</t>
+  </si>
+  <si>
+    <t>Y2-1-30</t>
+  </si>
+  <si>
+    <t>Y2-1-25</t>
+  </si>
+  <si>
+    <t>N2-1-15</t>
+  </si>
+  <si>
+    <t>C2-1-10</t>
+  </si>
+  <si>
+    <t>O2-1-5</t>
+  </si>
+  <si>
+    <t>AA2-1-9</t>
+  </si>
+  <si>
+    <t>S2-1-10</t>
+  </si>
+  <si>
+    <t>K2-1-10</t>
+  </si>
+  <si>
+    <t>F2-1-2</t>
+  </si>
+  <si>
+    <t>K2-1-16</t>
+  </si>
+  <si>
+    <t>AA2-1-10</t>
+  </si>
+  <si>
+    <t>U2-1-27</t>
+  </si>
+  <si>
+    <t>S2-1-8</t>
+  </si>
+  <si>
+    <t>CC2-1-12</t>
+  </si>
+  <si>
+    <t>T2-1-10</t>
+  </si>
+  <si>
+    <t>C2-1-9</t>
+  </si>
+  <si>
+    <t>S2-1-14</t>
+  </si>
+  <si>
+    <t>E2-1-29</t>
+  </si>
+  <si>
+    <t>S2-1-19</t>
+  </si>
+  <si>
+    <t>CC2-1-8</t>
+  </si>
+  <si>
+    <t>N2-1-17</t>
+  </si>
+  <si>
+    <t>Y2-1-22</t>
+  </si>
+  <si>
+    <t>F2-1-11</t>
+  </si>
+  <si>
+    <t>BB2-1-7</t>
+  </si>
+  <si>
+    <t>D2-1-5</t>
+  </si>
+  <si>
+    <t>W2-1-26</t>
   </si>
 </sst>
 </file>
@@ -17335,7 +17462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CB176C-CC02-5B47-9B7E-97CA787F3190}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -18039,6 +18166,713 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DBD770-9C9F-3A4E-BC24-C764B6A23C3C}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>

--- a/QPCR_Plate_Logs.xlsx
+++ b/QPCR_Plate_Logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OgbunuLab\Desktop\Lauren\Ranavirus\qPCR_Lab_Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Frawgz/qPCR_Lab_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12431CEC-B16F-4CD0-8EA4-79DEDF4388AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3F189-FB1C-4042-AC25-5B805CBC91E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="14963" windowHeight="13620" tabRatio="500" firstSheet="29" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14960" windowHeight="13620" tabRatio="500" firstSheet="29" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-03-14-Run1" sheetId="2" r:id="rId1"/>
@@ -44,21 +44,16 @@
     <sheet name="2018-11-15-Run4-17" sheetId="36" r:id="rId29"/>
     <sheet name="2018-11-21-Run5-17" sheetId="37" r:id="rId30"/>
     <sheet name="2018-11-21-Run6-17" sheetId="38" r:id="rId31"/>
-    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId32"/>
+    <sheet name="2018-12-6-Run7-17" sheetId="39" r:id="rId32"/>
+    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId33"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'03-02-18-Run4'!$A$1:$N$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'03-13-18-Run7'!$A$1:$M$23</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -67,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4076" uniqueCount="1389">
   <si>
     <t>target</t>
   </si>
@@ -4169,6 +4164,132 @@
   </si>
   <si>
     <t>Y2-1-18</t>
+  </si>
+  <si>
+    <t>N2-1-8</t>
+  </si>
+  <si>
+    <t>J2-1-3</t>
+  </si>
+  <si>
+    <t>V2-1-14</t>
+  </si>
+  <si>
+    <t>I2-1-7</t>
+  </si>
+  <si>
+    <t>U2-1-20</t>
+  </si>
+  <si>
+    <t>P2-1-7</t>
+  </si>
+  <si>
+    <t>V2-1-15</t>
+  </si>
+  <si>
+    <t>U2-1-4</t>
+  </si>
+  <si>
+    <t>R2-1-6</t>
+  </si>
+  <si>
+    <t>Q2-1-7</t>
+  </si>
+  <si>
+    <t>I2-1-24</t>
+  </si>
+  <si>
+    <t>P2-1-17</t>
+  </si>
+  <si>
+    <t>F2-1-6</t>
+  </si>
+  <si>
+    <t>N2-1-29</t>
+  </si>
+  <si>
+    <t>E2-1-12</t>
+  </si>
+  <si>
+    <t>N2-1-16</t>
+  </si>
+  <si>
+    <t>P2-1-21</t>
+  </si>
+  <si>
+    <t>Y2-1-12</t>
+  </si>
+  <si>
+    <t>CC2-1-21</t>
+  </si>
+  <si>
+    <t>W2-1-31</t>
+  </si>
+  <si>
+    <t>CC2-1-25</t>
+  </si>
+  <si>
+    <t>C2-1-28</t>
+  </si>
+  <si>
+    <t>I2-1-5</t>
+  </si>
+  <si>
+    <t>A2-1-4</t>
+  </si>
+  <si>
+    <t>A2-1-11</t>
+  </si>
+  <si>
+    <t>C2-1-15</t>
+  </si>
+  <si>
+    <t>AA2-1-33</t>
+  </si>
+  <si>
+    <t>AA2-1-25</t>
+  </si>
+  <si>
+    <t>Y2-1-11</t>
+  </si>
+  <si>
+    <t>A2-1-10</t>
+  </si>
+  <si>
+    <t>D2-1-4</t>
+  </si>
+  <si>
+    <t>AA2-1-22</t>
+  </si>
+  <si>
+    <t>T2-1-8</t>
+  </si>
+  <si>
+    <t>W2-1-1</t>
+  </si>
+  <si>
+    <t>W2-1-8</t>
+  </si>
+  <si>
+    <t>X2-1-3</t>
+  </si>
+  <si>
+    <t>S2-1-33</t>
+  </si>
+  <si>
+    <t>AA2-1-8</t>
+  </si>
+  <si>
+    <t>W2-1-7</t>
+  </si>
+  <si>
+    <t>V2-1-18</t>
+  </si>
+  <si>
+    <t>W2-1-22</t>
+  </si>
+  <si>
+    <t>L2-1-8</t>
   </si>
 </sst>
 </file>
@@ -5218,26 +5339,26 @@
       <selection activeCell="B1" sqref="B1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -5288,7 +5409,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -5363,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -5415,7 +5536,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -5467,7 +5588,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -5518,7 +5639,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -5570,7 +5691,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -5622,7 +5743,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -5674,7 +5795,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -5726,7 +5847,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -5745,11 +5866,11 @@
       <c r="P10" s="16"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -5771,7 +5892,7 @@
       <c r="N12" s="35"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -5789,7 +5910,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -5810,7 +5931,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -5831,7 +5952,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -5852,7 +5973,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -5869,7 +5990,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -5879,40 +6000,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -5934,26 +6055,26 @@
       <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -6004,7 +6125,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -6078,7 +6199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -6130,7 +6251,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6182,7 +6303,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -6232,7 +6353,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -6283,7 +6404,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -6334,7 +6455,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -6385,7 +6506,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -6436,7 +6557,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -6454,11 +6575,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -6480,7 +6601,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -6498,7 +6619,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -6519,7 +6640,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -6540,7 +6661,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -6561,7 +6682,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -6578,7 +6699,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -6588,40 +6709,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -6643,26 +6764,26 @@
       <selection sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -6713,7 +6834,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -6787,7 +6908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -6839,7 +6960,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -6891,7 +7012,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -6941,7 +7062,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -6992,7 +7113,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -7043,7 +7164,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -7094,7 +7215,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -7145,7 +7266,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -7163,11 +7284,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -7189,7 +7310,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -7207,7 +7328,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -7228,7 +7349,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -7249,7 +7370,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -7270,7 +7391,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -7287,7 +7408,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -7297,40 +7418,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -7352,26 +7473,26 @@
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -7422,7 +7543,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -7496,7 +7617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -7548,7 +7669,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -7600,7 +7721,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -7650,7 +7771,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -7701,7 +7822,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -7752,7 +7873,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -7803,7 +7924,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -7854,7 +7975,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -7872,11 +7993,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -7898,7 +8019,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -7916,7 +8037,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -7937,7 +8058,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -7958,7 +8079,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -7979,7 +8100,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -7996,7 +8117,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -8006,40 +8127,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -8061,26 +8182,26 @@
       <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -8131,7 +8252,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -8205,7 +8326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -8257,7 +8378,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -8309,7 +8430,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -8359,7 +8480,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -8410,7 +8531,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -8461,7 +8582,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -8512,7 +8633,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -8563,7 +8684,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -8581,11 +8702,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -8607,7 +8728,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -8625,7 +8746,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -8646,7 +8767,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -8667,7 +8788,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -8688,7 +8809,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -8705,7 +8826,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -8715,40 +8836,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -8770,26 +8891,26 @@
       <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -8840,7 +8961,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -8914,7 +9035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -8966,7 +9087,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -9018,7 +9139,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -9068,7 +9189,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -9119,7 +9240,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -9170,7 +9291,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -9221,7 +9342,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -9272,7 +9393,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -9290,11 +9411,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -9316,7 +9437,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -9334,7 +9455,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -9355,7 +9476,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -9376,7 +9497,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -9397,7 +9518,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -9414,7 +9535,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -9424,40 +9545,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -9479,26 +9600,26 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -9549,7 +9670,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -9623,7 +9744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -9675,7 +9796,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -9727,7 +9848,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -9777,7 +9898,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -9828,7 +9949,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -9879,7 +10000,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -9930,7 +10051,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -9981,7 +10102,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -9999,11 +10120,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -10025,7 +10146,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -10043,7 +10164,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -10064,7 +10185,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -10085,7 +10206,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -10106,7 +10227,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -10123,7 +10244,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -10133,43 +10254,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -10191,26 +10312,26 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -10261,7 +10382,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -10335,7 +10456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -10387,7 +10508,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -10439,7 +10560,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -10489,7 +10610,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -10540,7 +10661,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -10591,7 +10712,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -10642,7 +10763,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -10693,7 +10814,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -10711,11 +10832,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -10737,7 +10858,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -10755,7 +10876,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -10776,7 +10897,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -10797,7 +10918,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -10818,7 +10939,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -10835,7 +10956,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -10845,43 +10966,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -10903,26 +11024,26 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -10973,7 +11094,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -11047,7 +11168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -11099,7 +11220,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -11151,7 +11272,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -11201,7 +11322,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -11252,7 +11373,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -11303,7 +11424,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -11354,7 +11475,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -11405,7 +11526,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -11423,11 +11544,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -11449,7 +11570,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -11467,7 +11588,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -11488,7 +11609,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -11509,7 +11630,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -11530,7 +11651,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -11547,7 +11668,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -11557,43 +11678,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -11615,26 +11736,26 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -11685,7 +11806,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -11759,7 +11880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -11811,7 +11932,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -11863,7 +11984,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -11913,7 +12034,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -11964,7 +12085,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -12015,7 +12136,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -12066,7 +12187,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -12117,7 +12238,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -12135,11 +12256,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -12161,7 +12282,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -12179,7 +12300,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -12200,7 +12321,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -12221,7 +12342,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -12242,7 +12363,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -12259,7 +12380,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -12269,43 +12390,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -12322,26 +12443,26 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -12392,7 +12513,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -12466,7 +12587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -12518,7 +12639,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -12570,7 +12691,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -12620,7 +12741,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -12671,7 +12792,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -12722,7 +12843,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -12773,7 +12894,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -12824,7 +12945,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -12842,11 +12963,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -12868,7 +12989,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -12886,7 +13007,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -12907,7 +13028,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -12928,7 +13049,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -12949,7 +13070,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -12966,7 +13087,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -12976,43 +13097,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -13029,26 +13150,26 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -13099,7 +13220,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -13173,7 +13294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -13225,7 +13346,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -13277,7 +13398,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -13327,7 +13448,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -13378,7 +13499,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -13429,7 +13550,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -13480,7 +13601,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -13531,7 +13652,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -13549,11 +13670,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -13575,7 +13696,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -13593,7 +13714,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -13614,7 +13735,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -13635,7 +13756,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -13656,7 +13777,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -13673,7 +13794,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -13683,40 +13804,40 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -13738,26 +13859,26 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -13808,7 +13929,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -13882,7 +14003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -13934,7 +14055,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -13986,7 +14107,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -14036,7 +14157,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -14087,7 +14208,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -14138,7 +14259,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -14189,7 +14310,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -14240,7 +14361,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -14258,11 +14379,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -14284,7 +14405,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -14302,7 +14423,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -14323,7 +14444,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -14344,7 +14465,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -14365,7 +14486,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -14382,7 +14503,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -14392,43 +14513,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -14445,26 +14566,26 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -14515,7 +14636,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -14589,7 +14710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -14641,7 +14762,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -14693,7 +14814,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -14743,7 +14864,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -14794,7 +14915,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -14845,7 +14966,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -14896,7 +15017,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -14947,7 +15068,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -14965,11 +15086,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -14991,7 +15112,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -15009,7 +15130,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -15030,7 +15151,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -15051,7 +15172,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -15072,7 +15193,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -15089,7 +15210,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -15099,43 +15220,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -15152,26 +15273,26 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -15222,7 +15343,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -15296,7 +15417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -15348,7 +15469,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -15400,7 +15521,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -15450,7 +15571,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -15501,7 +15622,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -15552,7 +15673,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -15603,7 +15724,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -15654,7 +15775,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -15672,11 +15793,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -15698,7 +15819,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -15716,7 +15837,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -15737,7 +15858,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -15758,7 +15879,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -15779,7 +15900,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -15796,7 +15917,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -15806,43 +15927,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -15859,26 +15980,26 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -15929,7 +16050,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -16003,7 +16124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -16055,7 +16176,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -16107,7 +16228,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -16157,7 +16278,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -16208,7 +16329,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -16259,7 +16380,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -16310,7 +16431,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -16361,7 +16482,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -16379,11 +16500,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -16405,7 +16526,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -16423,7 +16544,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -16444,7 +16565,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -16465,7 +16586,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -16486,7 +16607,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -16503,7 +16624,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -16513,43 +16634,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -16566,26 +16687,26 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -16636,7 +16757,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -16710,7 +16831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -16762,7 +16883,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -16814,7 +16935,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -16864,7 +16985,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -16915,7 +17036,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -16966,7 +17087,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -17017,7 +17138,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -17068,7 +17189,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -17086,11 +17207,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -17112,7 +17233,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -17130,7 +17251,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -17151,7 +17272,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -17172,7 +17293,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -17193,7 +17314,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -17210,7 +17331,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -17220,43 +17341,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -17273,26 +17394,26 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -17343,7 +17464,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -17417,7 +17538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -17469,7 +17590,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -17521,7 +17642,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -17571,7 +17692,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -17622,7 +17743,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -17673,7 +17794,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -17724,7 +17845,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -17775,7 +17896,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -17793,11 +17914,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -17819,7 +17940,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -17837,7 +17958,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -17858,7 +17979,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -17879,7 +18000,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -17900,7 +18021,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -17917,7 +18038,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -17927,43 +18048,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -17980,26 +18101,26 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -18050,7 +18171,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -18124,7 +18245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -18176,7 +18297,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -18228,7 +18349,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -18278,7 +18399,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -18329,7 +18450,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -18380,7 +18501,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -18431,7 +18552,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -18482,7 +18603,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -18500,11 +18621,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -18526,7 +18647,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -18544,7 +18665,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -18565,7 +18686,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -18586,7 +18707,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -18607,7 +18728,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -18624,7 +18745,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -18634,43 +18755,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -18687,26 +18808,26 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -18757,7 +18878,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -18831,7 +18952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -18883,7 +19004,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -18935,7 +19056,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -18985,7 +19106,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -19036,7 +19157,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -19087,7 +19208,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -19138,7 +19259,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -19189,7 +19310,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -19207,11 +19328,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -19233,7 +19354,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -19251,7 +19372,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -19272,7 +19393,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -19293,7 +19414,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -19314,7 +19435,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -19331,7 +19452,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -19341,43 +19462,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -19394,28 +19515,26 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="39" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -19466,7 +19585,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -19540,7 +19659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -19592,7 +19711,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -19644,7 +19763,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -19694,7 +19813,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -19745,7 +19864,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -19796,7 +19915,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -19847,7 +19966,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -19898,7 +20017,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -19916,11 +20035,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -19942,7 +20061,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -19960,7 +20079,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -19981,7 +20100,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -20002,7 +20121,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -20023,7 +20142,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -20040,7 +20159,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -20050,43 +20169,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -20103,28 +20222,26 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="39" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -20175,7 +20292,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -20249,7 +20366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -20301,7 +20418,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -20353,7 +20470,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -20403,7 +20520,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -20454,7 +20571,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -20505,7 +20622,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -20556,7 +20673,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -20607,7 +20724,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -20625,11 +20742,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -20651,7 +20768,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -20669,7 +20786,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -20690,7 +20807,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -20711,7 +20828,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -20732,7 +20849,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -20749,7 +20866,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -20759,43 +20876,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -20812,26 +20929,26 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -20882,7 +20999,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -20956,7 +21073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -21008,7 +21125,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -21060,7 +21177,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -21110,7 +21227,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -21161,7 +21278,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -21212,7 +21329,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -21263,7 +21380,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -21314,7 +21431,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -21332,10 +21449,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -21356,7 +21473,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -21374,7 +21491,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -21395,7 +21512,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -21416,7 +21533,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -21437,7 +21554,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -21454,7 +21571,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -21464,43 +21581,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>76</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -21522,28 +21639,26 @@
       <selection sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="39" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -21594,7 +21709,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -21668,7 +21783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -21720,7 +21835,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -21772,7 +21887,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -21822,7 +21937,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -21873,7 +21988,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -21924,7 +22039,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -21975,7 +22090,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -22026,7 +22141,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -22044,11 +22159,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -22070,7 +22185,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -22088,7 +22203,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -22109,7 +22224,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -22130,7 +22245,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -22151,7 +22266,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -22168,7 +22283,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -22178,43 +22293,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -22227,32 +22342,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80EF641-4F63-4096-B5F8-2F4784E3B86F}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="39" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -22303,7 +22416,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -22377,7 +22490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -22429,7 +22542,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -22481,7 +22594,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -22531,7 +22644,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -22582,7 +22695,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -22633,7 +22746,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -22684,7 +22797,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -22735,7 +22848,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -22753,11 +22866,11 @@
       <c r="O10" s="16"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -22779,7 +22892,7 @@
       <c r="N12" s="35"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -22797,7 +22910,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -22818,7 +22931,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -22839,7 +22952,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -22860,7 +22973,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -22877,7 +22990,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -22887,43 +23000,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>673</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="53" t="s">
         <v>674</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -22933,6 +23046,713 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D29717B-CF1F-1B41-99E3-4A881132991F}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>1351</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>1351</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>1387</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>1388</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>1387</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>1388</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -22940,19 +23760,19 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8125" style="38"/>
-    <col min="2" max="2" width="7.8125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="8.6875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="8.3125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="38"/>
+    <col min="2" max="2" width="7.83203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="38" customWidth="1"/>
     <col min="5" max="5" width="9" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.3125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="6.8125" style="38" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="38"/>
+    <col min="6" max="6" width="4.33203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="41" t="s">
         <v>14</v>
@@ -22971,7 +23791,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>18</v>
       </c>
@@ -22987,7 +23807,7 @@
         <v>252.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
         <v>75</v>
       </c>
@@ -23007,7 +23827,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>73</v>
       </c>
@@ -23027,7 +23847,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>74</v>
       </c>
@@ -23047,7 +23867,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>70</v>
       </c>
@@ -23063,7 +23883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -23072,7 +23892,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
     </row>
   </sheetData>
@@ -23095,26 +23915,26 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -23165,7 +23985,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -23239,7 +24059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -23291,7 +24111,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -23343,7 +24163,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -23393,7 +24213,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -23444,7 +24264,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -23495,7 +24315,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -23546,7 +24366,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -23597,7 +24417,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -23615,10 +24435,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -23639,7 +24459,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -23657,7 +24477,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -23678,7 +24498,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -23699,7 +24519,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -23720,7 +24540,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -23737,7 +24557,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -23747,43 +24567,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -23806,26 +24626,26 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -23876,7 +24696,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -23950,7 +24770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -24002,7 +24822,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -24054,7 +24874,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -24104,7 +24924,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -24155,7 +24975,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -24206,7 +25026,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -24257,7 +25077,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -24308,7 +25128,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -24326,10 +25146,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -24350,7 +25170,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -24368,7 +25188,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -24389,7 +25209,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -24410,7 +25230,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -24431,7 +25251,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -24448,7 +25268,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -24458,43 +25278,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>163</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -24516,26 +25336,26 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -24586,7 +25406,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -24660,7 +25480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -24712,7 +25532,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -24764,7 +25584,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -24814,7 +25634,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -24865,7 +25685,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -24916,7 +25736,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -24967,7 +25787,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -25018,7 +25838,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -25036,10 +25856,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -25060,7 +25880,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -25078,7 +25898,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -25099,7 +25919,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -25120,7 +25940,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -25141,7 +25961,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -25158,7 +25978,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -25168,43 +25988,43 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>163</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -25226,26 +26046,26 @@
       <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -25310,7 +26130,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -25377,7 +26197,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -25443,7 +26263,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -25509,7 +26329,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -25573,7 +26393,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -25638,7 +26458,7 @@
       <c r="AK6"/>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -25703,7 +26523,7 @@
       <c r="AK7"/>
       <c r="AL7"/>
     </row>
-    <row r="8" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -25768,7 +26588,7 @@
       <c r="AK8"/>
       <c r="AL8"/>
     </row>
-    <row r="9" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -25833,7 +26653,7 @@
       <c r="AK9"/>
       <c r="AL9"/>
     </row>
-    <row r="10" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -25873,7 +26693,7 @@
       <c r="AK10"/>
       <c r="AL10"/>
     </row>
-    <row r="11" spans="1:38" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
       <c r="AA11"/>
       <c r="AB11"/>
@@ -25888,7 +26708,7 @@
       <c r="AK11"/>
       <c r="AL11"/>
     </row>
-    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -25921,7 +26741,7 @@
       <c r="AK12"/>
       <c r="AL12"/>
     </row>
-    <row r="13" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -25951,7 +26771,7 @@
       <c r="AK13"/>
       <c r="AL13"/>
     </row>
-    <row r="14" spans="1:38" ht="52.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:38" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -25984,7 +26804,7 @@
       <c r="AK14"/>
       <c r="AL14"/>
     </row>
-    <row r="15" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -26017,7 +26837,7 @@
       <c r="AK15"/>
       <c r="AL15"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -26038,7 +26858,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -26055,7 +26875,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -26065,49 +26885,49 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>332</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>163</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="53" t="s">
         <v>333</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="53" t="s">
         <v>334</v>
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -26130,26 +26950,26 @@
       <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -26200,7 +27020,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -26274,7 +27094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -26326,7 +27146,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -26378,7 +27198,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -26428,7 +27248,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -26479,7 +27299,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -26530,7 +27350,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -26581,7 +27401,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -26632,7 +27452,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -26650,10 +27470,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -26674,7 +27494,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -26692,7 +27512,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -26713,7 +27533,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -26734,7 +27554,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -26755,7 +27575,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -26772,7 +27592,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -26782,49 +27602,49 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>332</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>163</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="53" t="s">
         <v>333</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="53" t="s">
         <v>334</v>
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>
@@ -26846,26 +27666,26 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="6.8125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.8125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="6.8125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6875" style="4"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6875" style="4"/>
-    <col min="19" max="19" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6875" style="4"/>
-    <col min="21" max="21" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6875" style="4"/>
-    <col min="23" max="23" width="10.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6875" style="4"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -26916,7 +27736,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -26990,7 +27810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -27042,7 +27862,7 @@
       <c r="W3" s="14"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -27094,7 +27914,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -27144,7 +27964,7 @@
       <c r="W5" s="14"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -27195,7 +28015,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -27246,7 +28066,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -27297,7 +28117,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -27348,7 +28168,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -27368,10 +28188,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
         <v>14</v>
@@ -27392,7 +28212,7 @@
       <c r="L12" s="36"/>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
@@ -27410,7 +28230,7 @@
       <c r="L13" s="35"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:32" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>69</v>
       </c>
@@ -27431,7 +28251,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
@@ -27452,7 +28272,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
@@ -27473,7 +28293,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
@@ -27490,7 +28310,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -27500,49 +28320,49 @@
       <c r="H18" s="49"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>332</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>163</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="53" t="s">
         <v>333</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="53" t="s">
         <v>334</v>
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L29" s="4"/>
     </row>
   </sheetData>

--- a/QPCR_Plate_Logs.xlsx
+++ b/QPCR_Plate_Logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymond/Desktop/Frawgz/qPCR_Lab_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3F189-FB1C-4042-AC25-5B805CBC91E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0619F99C-8BD8-8644-A41B-E4941122C273}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14960" windowHeight="13620" tabRatio="500" firstSheet="29" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18480" windowHeight="14440" tabRatio="500" firstSheet="29" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-03-14-Run1" sheetId="2" r:id="rId1"/>
@@ -45,15 +45,21 @@
     <sheet name="2018-11-21-Run5-17" sheetId="37" r:id="rId30"/>
     <sheet name="2018-11-21-Run6-17" sheetId="38" r:id="rId31"/>
     <sheet name="2018-12-6-Run7-17" sheetId="39" r:id="rId32"/>
-    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId33"/>
+    <sheet name="2018-12-6-Run8-17" sheetId="41" r:id="rId33"/>
+    <sheet name="Master Mix Calculation" sheetId="3" r:id="rId34"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">'Master Mix Calculation'!$A$1:$G$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'03-02-18-Run4'!$A$1:$N$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'03-13-18-Run7'!$A$1:$M$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -62,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4076" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1430">
   <si>
     <t>target</t>
   </si>
@@ -4290,6 +4296,129 @@
   </si>
   <si>
     <t>L2-1-8</t>
+  </si>
+  <si>
+    <t>X2-1-14</t>
+  </si>
+  <si>
+    <t>I2-1-17</t>
+  </si>
+  <si>
+    <t>K2-1-11</t>
+  </si>
+  <si>
+    <t>A2-1-12</t>
+  </si>
+  <si>
+    <t>CC2-1-11</t>
+  </si>
+  <si>
+    <t>T2-1-15</t>
+  </si>
+  <si>
+    <t>F2-1-19</t>
+  </si>
+  <si>
+    <t>C2-1-7</t>
+  </si>
+  <si>
+    <t>CC2-1-22</t>
+  </si>
+  <si>
+    <t>U2-1-16</t>
+  </si>
+  <si>
+    <t>AA2-1-18</t>
+  </si>
+  <si>
+    <t>P2-1-3</t>
+  </si>
+  <si>
+    <t>C2-1-17</t>
+  </si>
+  <si>
+    <t>CC2-1-24</t>
+  </si>
+  <si>
+    <t>J2-1-6</t>
+  </si>
+  <si>
+    <t>Q2-1-21</t>
+  </si>
+  <si>
+    <t>T2-1-2</t>
+  </si>
+  <si>
+    <t>C2-1-5</t>
+  </si>
+  <si>
+    <t>X2-1-28</t>
+  </si>
+  <si>
+    <t>I2-1-3</t>
+  </si>
+  <si>
+    <t>K2-1-9</t>
+  </si>
+  <si>
+    <t>S2-1-15</t>
+  </si>
+  <si>
+    <t>S2-1-11</t>
+  </si>
+  <si>
+    <t>V2-1-22</t>
+  </si>
+  <si>
+    <t>W2-1-9</t>
+  </si>
+  <si>
+    <t>CC2-1-30</t>
+  </si>
+  <si>
+    <t>Q2-1-11</t>
+  </si>
+  <si>
+    <t>E2-1-19</t>
+  </si>
+  <si>
+    <t>Y2-1-26</t>
+  </si>
+  <si>
+    <t>G2-1-7</t>
+  </si>
+  <si>
+    <t>G2-1-3</t>
+  </si>
+  <si>
+    <t>U2-1-12</t>
+  </si>
+  <si>
+    <t>N2-1-28</t>
+  </si>
+  <si>
+    <t>V2-1-3</t>
+  </si>
+  <si>
+    <t>X2-1-29</t>
+  </si>
+  <si>
+    <t>U2-1-22</t>
+  </si>
+  <si>
+    <t>G2-1-6</t>
+  </si>
+  <si>
+    <t>I2-1-29</t>
+  </si>
+  <si>
+    <t>U2-1-13</t>
+  </si>
+  <si>
+    <t>I2-1-22</t>
+  </si>
+  <si>
+    <t>E2-1-20</t>
   </si>
 </sst>
 </file>
@@ -23049,8 +23178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D29717B-CF1F-1B41-99E3-4A881132991F}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23753,6 +23882,713 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A507C1-2800-574F-8766-9BC933C3BBDD}">
+  <dimension ref="A1:AF29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="4"/>
+    <col min="23" max="23" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>1393</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>1393</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>1402</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>1405</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>1406</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>1402</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>1405</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>1406</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="P5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="16"/>
+      <c r="P6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>1429</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>1429</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="16"/>
+      <c r="P9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="35"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>101</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
+        <f>F13*H12</f>
+        <v>252.5</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
+        <f>F14*H12</f>
+        <v>505</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45">
+        <f>F15*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>F16*H12</f>
+        <v>25.25</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45">
+        <f>F17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
